--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2329784.001019706</v>
+        <v>2463727.249072805</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.44564101</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916861</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5039726.007878158</v>
+        <v>5311082.001868594</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51.26597368195073</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -671,10 +673,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>283.3178553914713</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +819,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>137.4850115114816</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>91.67690101085871</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>318.3252443674959</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>289.9304506129036</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>142.8403896021477</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>89.60899981689296</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1117,7 +1119,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>361.7777040895044</v>
+        <v>44.69616728427836</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1294,7 +1296,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>55.12765829089195</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1306,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>125.6544692828918</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1378,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>269.8233356016978</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1528,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1540,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170502</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>31.24391673888107</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>250.3527719097019</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2011,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>111.5098183264943</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2138,7 +2140,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>27.97358346682158</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2725,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>82.62483121292163</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3433,16 +3435,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>75.86622810093029</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3481,7 +3483,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791318943</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3664,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3724,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>184.0200891708361</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630673</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>235.9518841633509</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3983,19 +3985,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>34.49236180744241</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4141,7 +4143,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>45.61239570677317</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4153,7 +4155,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>122.4914619056499</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4198,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.8932738874814</v>
+        <v>729.203080354842</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>695.1010115786694</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>663.231630793518</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>633.4972899922172</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>609.6702644418291</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4334,46 +4336,46 @@
         <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W2" t="n">
-        <v>1033.105672808467</v>
+        <v>770.8100258395735</v>
       </c>
       <c r="X2" t="n">
-        <v>613.9632093877782</v>
+        <v>755.7079664592883</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.6770856874316</v>
+        <v>751.4622467993457</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4407,25 +4409,25 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>480.0602407069692</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N3" t="n">
-        <v>1580.010651986078</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="O3" t="n">
-        <v>1580.010651986078</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>292.4245917140844</v>
+        <v>1079.313866698211</v>
       </c>
       <c r="C4" t="n">
-        <v>292.4245917140844</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>126.5465989156071</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4492,16 +4494,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>1108.937756271182</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4516,22 +4518,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V4" t="n">
-        <v>983.6892855326716</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W4" t="n">
-        <v>711.6628811189632</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="X4" t="n">
-        <v>711.6628811189632</v>
+        <v>1271.132485417198</v>
       </c>
       <c r="Y4" t="n">
-        <v>484.2432104330715</v>
+        <v>1271.132485417198</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>1786.543608036966</v>
       </c>
       <c r="C5" t="n">
-        <v>1216.618961230547</v>
+        <v>1348.40113522039</v>
       </c>
       <c r="D5" t="n">
-        <v>1184.749580445395</v>
+        <v>912.4913503948342</v>
       </c>
       <c r="E5" t="n">
-        <v>863.2089295691367</v>
+        <v>478.7166055531294</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>50.84917596233714</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233714</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233714</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>1107.976466382457</v>
+        <v>1733.888642131954</v>
       </c>
       <c r="M5" t="n">
-        <v>1107.976466382457</v>
+        <v>2357.989426176734</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>2357.989426176734</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>2357.989426176734</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>2357.989426176734</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2357.989426176734</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2520.804278925294</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>2505.702219545009</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>2212.843178521874</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326467</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993474</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>76.49605974993474</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>76.49605974993474</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>76.49605974993474</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>348.2978018843872</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>972.3985859291668</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>552.97043790589</v>
+        <v>593.0357356940413</v>
       </c>
       <c r="C7" t="n">
-        <v>380.4087263891149</v>
+        <v>448.75251387369</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4087263891149</v>
+        <v>448.75251387369</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>743.4007229285738</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>815.3347072823371</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1235.003956508118</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179229</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2340.960139477225</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>2095.080693055681</v>
       </c>
       <c r="U7" t="n">
-        <v>1339.37202113506</v>
+        <v>1816.647692308786</v>
       </c>
       <c r="V7" t="n">
-        <v>1052.41651300549</v>
+        <v>1529.692184179216</v>
       </c>
       <c r="W7" t="n">
-        <v>780.3901085917817</v>
+        <v>1257.665779765508</v>
       </c>
       <c r="X7" t="n">
-        <v>780.3901085917817</v>
+        <v>1012.27402509892</v>
       </c>
       <c r="Y7" t="n">
-        <v>552.97043790589</v>
+        <v>784.8543544130284</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1354.309253581271</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1354.309253581271</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>949.4537989923044</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>584.0217746594717</v>
+        <v>2624.098132161372</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>515.0619848335834</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>774.2462162041957</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>601.6845046874206</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>546.0000013632873</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>376.2419976140245</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>199.5349435757807</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1233.544589050298</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1653.597487995201</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1653.597487995201</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1653.597487995201</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="U10" t="n">
-        <v>1238.091239336891</v>
+        <v>2210.968635687901</v>
       </c>
       <c r="V10" t="n">
-        <v>1238.091239336891</v>
+        <v>1924.013127558332</v>
       </c>
       <c r="W10" t="n">
-        <v>966.0648349231828</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>966.0648349231828</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>966.0648349231828</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1222.738694693852</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>784.5962218772752</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>348.6864370517197</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>76.13761321162086</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>76.13761321162086</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>76.13761321162086</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>76.13761321162086</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L11" t="n">
-        <v>76.13761321162086</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M11" t="n">
-        <v>547.6660728014358</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N11" t="n">
-        <v>1489.869036295244</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O11" t="n">
-        <v>2432.071999789052</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P11" t="n">
-        <v>3260.381874622449</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>2881.322306888762</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2476.466852299795</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>2057.324388879106</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1649.03826517876</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>426.7596113382908</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K12" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L12" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M12" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N12" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O12" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P12" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>785.6314506292333</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C13" t="n">
-        <v>613.0697391124583</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="D13" t="n">
-        <v>447.191746313981</v>
+        <v>645.8766848899141</v>
       </c>
       <c r="E13" t="n">
-        <v>277.4337425647182</v>
+        <v>476.1186811406514</v>
       </c>
       <c r="F13" t="n">
-        <v>100.7266885264744</v>
+        <v>299.4116271024076</v>
       </c>
       <c r="G13" t="n">
-        <v>76.13761321162086</v>
+        <v>133.8203521282352</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2533.555854412417</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2287.676407990873</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2009.243407243978</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.287899114408</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.2614947007</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.869740034112</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>977.4500693482205</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2502.77682059263</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2064.634347776053</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1628.724562950498</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1345.742592622717</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1345.742592622717</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>1345.742592622717</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3586.813433454082</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3586.813433454082</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3586.813433454082</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3181.957978865115</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3181.957978865115</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2929.076391077538</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382908</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K15" t="n">
-        <v>1081.465657964015</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L15" t="n">
-        <v>1081.465657964015</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M15" t="n">
-        <v>1081.465657964015</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N15" t="n">
-        <v>1081.465657964015</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O15" t="n">
-        <v>1081.465657964015</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>926.6336502885522</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>754.0719387717771</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>588.1939459732998</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>418.435942224037</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7288881857932</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2674.558054071736</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2428.678607650191</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2150.245606903296</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1863.290098773727</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1591.263694360019</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1345.871939693431</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1118.452269007539</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5516,49 +5518,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>190.9207894961043</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5834,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5899,7 +5901,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H22" t="n">
         <v>190.9207894961043</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,19 +5992,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P23" t="n">
         <v>5113.04201353898</v>
@@ -6066,28 +6068,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,19 +6229,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6309,16 +6311,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>945.7774352703902</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>945.7774352703902</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N27" t="n">
-        <v>945.7774352703902</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O27" t="n">
-        <v>945.7774352703902</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
         <v>1765.500601749588</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,19 +6466,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
@@ -6543,22 +6545,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>405.0384966383147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>405.0384966383147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>405.0384966383147</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N30" t="n">
-        <v>405.0384966383147</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O30" t="n">
-        <v>405.0384966383147</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6774,28 +6776,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L33" t="n">
-        <v>414.500552094942</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M33" t="n">
-        <v>414.500552094942</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N33" t="n">
-        <v>1648.327823655249</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="O33" t="n">
-        <v>1648.327823655249</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="P33" t="n">
-        <v>1648.327823655249</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6923,10 +6925,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6938,19 +6940,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M35" t="n">
-        <v>2528.913654892426</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
@@ -6962,7 +6964,7 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
         <v>4809.322912595856</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>128.3245134312372</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M36" t="n">
-        <v>128.3245134312372</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N36" t="n">
-        <v>751.6989919312866</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2642.287896536276</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2396.408450114731</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835212</v>
@@ -7160,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.20561557716</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004238</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436401</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7217,7 +7219,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7250,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>128.3245134312372</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M39" t="n">
-        <v>1327.049347523737</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>849.8497331100115</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>677.2880215932364</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>677.2880215932364</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1269.08802251489</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1041.668351828999</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1811.83204528625</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>1373.689572469674</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>937.779787644118</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>504.0050428024131</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>76.13761321162086</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>76.13761321162086</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1345.742592622717</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M41" t="n">
-        <v>1345.742592622717</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N41" t="n">
-        <v>1345.742592622717</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>2881.322306888762</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>2476.466852299795</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2238.131615771158</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2238.131615771158</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2012863720785</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2012863720785</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>1044.404249865887</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>1044.404249865887</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>1044.404249865887</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>1622.20459659609</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.20459659609</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1674.355297099902</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.6336502885522</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>754.0719387717771</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>588.1939459732998</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>418.435942224037</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>241.7288881857932</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2674.558054071736</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2428.678607650191</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2150.245606903296</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1863.290098773727</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1591.263694360019</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1345.871939693431</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1118.452269007539</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1667.187455001329</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1229.044982184752</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>793.1351973591968</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>793.1351973591968</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>365.2677677684046</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>76.13761321162086</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>910.4879051697988</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1852.690868663607</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1852.690868663607</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>2318.17891112864</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3260.381874622449</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>3260.381874622449</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3806.880660581043</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3723.22878676488</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>3688.388017262413</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.77106719624</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2920.915612607273</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>2501.773149186583</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2093.487025486237</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>76.13761321162086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>400.6959381778332</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>400.6959381778332</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>400.6959381778332</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>400.6959381778332</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>797.1744111966217</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1739.37737469043</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1739.37737469043</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1739.37737469043</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1031.510897050778</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>858.949185534003</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D46" t="n">
-        <v>693.0711927355258</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>646.9980657589872</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>470.2910117207434</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>304.699736746571</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2533.555854412417</v>
+        <v>2595.191700773933</v>
       </c>
       <c r="T46" t="n">
-        <v>2533.555854412417</v>
+        <v>2349.312254352388</v>
       </c>
       <c r="U46" t="n">
-        <v>2255.122853665523</v>
+        <v>2070.879253605493</v>
       </c>
       <c r="V46" t="n">
-        <v>1968.167345535953</v>
+        <v>1783.923745475924</v>
       </c>
       <c r="W46" t="n">
-        <v>1696.140941122245</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="X46" t="n">
-        <v>1450.749186455657</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y46" t="n">
-        <v>1223.329515769765</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
   </sheetData>
@@ -7982,10 +7984,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7994,13 +7996,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,19 +8057,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="L3" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L3" t="n">
-        <v>262.4693064538401</v>
-      </c>
       <c r="M3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,19 +8142,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>370.2350542247758</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>298.4303698644311</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8231,13 +8233,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>165.282730603155</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,25 +8294,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>274.5472142772247</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8371,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>296.9562613211783</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238407</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>112.1603739174596</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8617,19 +8619,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.02620412648071</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,25 +8692,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>476.2913733230455</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>951.7201651452608</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.7201651452608</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,16 +8932,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9164,19 +9166,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>756.3484258820586</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9240,10 +9242,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>847.7472627814486</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9480,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9638,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9714,19 +9716,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>407.423047230348</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9957,19 +9959,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10112,22 +10114,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>946.7571087441338</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10191,25 +10193,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10422,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10431,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10586,22 +10588,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>60.59188538505214</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>507.105909296743</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10668,25 +10670,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>629.6711904040903</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>51.29797569827247</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10905,16 +10907,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>442.8800547735873</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11063,16 +11065,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11136,13 +11138,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>951.7201651452609</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>583.6367138688925</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>470.1899418838721</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>400.4833060795844</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>159.6136617915899</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>107.2592358276482</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>153.8504905536412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>63.43016517136702</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>81.78272691405301</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>58.91774794908554</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
     </row>
     <row r="41">
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>178.9991546231315</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>222.1377178487108</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26029,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>122.4480280049969</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>35.15749310933337</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>447314.2956983803</v>
+        <v>453655.456910018</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>447314.2956983803</v>
+        <v>454797.1969329807</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>373385.9694808392</v>
+        <v>461802.686849012</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>373385.9694808392</v>
+        <v>461802.686849012</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>461802.6868490119</v>
+        <v>461802.686849012</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>373385.9694808392</v>
+        <v>461802.686849012</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>373385.9694808392</v>
+        <v>461802.686849012</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26316,25 @@
         <v>509339.9538958881</v>
       </c>
       <c r="C2" t="n">
-        <v>509339.9538958882</v>
+        <v>509339.9538958881</v>
       </c>
       <c r="D2" t="n">
         <v>509339.9538958881</v>
       </c>
       <c r="E2" t="n">
-        <v>404686.1866808239</v>
+        <v>500514.7049304846</v>
       </c>
       <c r="F2" t="n">
-        <v>404686.1866808239</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="G2" t="n">
-        <v>500514.7049304849</v>
+        <v>500514.7049304846</v>
       </c>
       <c r="H2" t="n">
-        <v>500514.7049304846</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="I2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="J2" t="n">
         <v>500514.7049304847</v>
@@ -26350,10 +26352,10 @@
         <v>500514.7049304848</v>
       </c>
       <c r="O2" t="n">
-        <v>404686.1866808239</v>
+        <v>500514.7049304849</v>
       </c>
       <c r="P2" t="n">
-        <v>404686.1866808239</v>
+        <v>500514.7049304847</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501638</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.5955499826</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636913</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877268</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622176</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,16 +26420,16 @@
         <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>146735.1647947849</v>
       </c>
       <c r="D4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>33249.55378461168</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="F4" t="n">
-        <v>33249.55378461169</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="G4" t="n">
         <v>41122.95192991272</v>
@@ -26442,22 +26444,22 @@
         <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="L4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991273</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>33249.55378461168</v>
+        <v>41122.95192991267</v>
       </c>
       <c r="P4" t="n">
-        <v>33249.55378461168</v>
+        <v>41122.95192991267</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120159.3320431425</v>
+        <v>120159.3320431426</v>
       </c>
       <c r="C6" t="n">
-        <v>262350.6327028525</v>
+        <v>224060.8073980841</v>
       </c>
       <c r="D6" t="n">
-        <v>262350.6327028525</v>
+        <v>284216.0865452433</v>
       </c>
       <c r="E6" t="n">
-        <v>156094.7519332764</v>
+        <v>199318.4051737297</v>
       </c>
       <c r="F6" t="n">
-        <v>313572.0468553803</v>
+        <v>381673.5143947796</v>
       </c>
       <c r="G6" t="n">
-        <v>292173.7057884106</v>
+        <v>381673.5143947795</v>
       </c>
       <c r="H6" t="n">
-        <v>381673.5143947794</v>
+        <v>381673.5143947795</v>
       </c>
       <c r="I6" t="n">
         <v>381673.5143947795</v>
@@ -26546,22 +26548,22 @@
         <v>270659.0490497893</v>
       </c>
       <c r="K6" t="n">
+        <v>328627.6597560068</v>
+      </c>
+      <c r="L6" t="n">
+        <v>372281.2126681574</v>
+      </c>
+      <c r="M6" t="n">
+        <v>229473.343456792</v>
+      </c>
+      <c r="N6" t="n">
+        <v>381673.5143947796</v>
+      </c>
+      <c r="O6" t="n">
+        <v>381673.5143947797</v>
+      </c>
+      <c r="P6" t="n">
         <v>381673.5143947795</v>
-      </c>
-      <c r="L6" t="n">
-        <v>381673.5143947795</v>
-      </c>
-      <c r="M6" t="n">
-        <v>250237.2672373601</v>
-      </c>
-      <c r="N6" t="n">
-        <v>381673.5143947795</v>
-      </c>
-      <c r="O6" t="n">
-        <v>313572.0468553804</v>
-      </c>
-      <c r="P6" t="n">
-        <v>313572.0468553804</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939285</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.745296776888</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939285</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.745296776888</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939285</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.745296776888</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370.7706010981079</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27391,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>114.0659976714975</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>33.35108289012572</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>76.3835227009114</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>111.1117530257919</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>114.2728118504395</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>27.99570479945962</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>186.0396709225328</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>53.17333469697803</v>
+        <v>370.254871502204</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>109.0915545796006</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>143.6516710866795</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34702,10 +34704,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34714,13 +34716,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,19 +34777,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="L3" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L3" t="n">
-        <v>262.4693064538401</v>
-      </c>
       <c r="M3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34860,19 +34862,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>370.2350542247758</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>298.4303698644311</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,13 +34953,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>165.282730603155</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>274.5472142772247</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>296.9562613211783</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238407</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>112.1603739174596</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,19 +35339,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.02620412648071</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>476.2913733230455</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>951.7201651452608</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O11" t="n">
-        <v>951.7201651452608</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,19 +35649,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,19 +35886,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>756.3484258820586</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,7 +35974,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>847.7472627814486</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,7 +36211,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36358,13 +36360,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36434,19 +36436,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>407.423047230348</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36677,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36832,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>946.7571087441338</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37306,22 +37308,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N35" t="n">
-        <v>60.59188538505214</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>507.105909296743</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>629.6711904040903</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>51.29797569827247</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>442.8800547735873</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37801,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37858,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>951.7201651452609</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37871,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>583.6367138688925</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>470.1899418838721</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>400.4833060795844</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2463727.249072805</v>
+        <v>2463202.066703774</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916861</v>
+        <v>278692.0725916862</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -667,19 +667,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>315.7090974304647</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>283.3178553914713</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -727,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>137.4850115114816</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="5">
@@ -901,13 +901,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>419.2542813063221</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>289.9304506129036</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>142.8403896021477</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>166.8316574011737</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>418.2942882004972</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>44.69616728427836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1353,7 +1353,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>125.6544692828918</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1372,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314298</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800184</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1429,16 +1429,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1542,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>155.1461723647465</v>
       </c>
       <c r="H13" t="n">
-        <v>31.24391673888107</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1672,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864833</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2140,7 +2140,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.97358346682158</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776638</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>82.62483121292163</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>86.91406253606259</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>172.6623007436909</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3268,25 +3268,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884119</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3325,16 +3325,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="36">
@@ -3435,10 +3435,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>35.34780583513513</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170436</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791318943</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3562,16 +3562,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="39">
@@ -3672,13 +3672,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>54.49360828358933</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.55329631630673</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3742,25 +3742,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791314619</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3799,13 +3799,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864838</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3900,10 +3900,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>217.2891245976625</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3979,25 +3979,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314619</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864834</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>126.7541180064922</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>122.4914619056499</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>729.203080354842</v>
+        <v>846.6806259663152</v>
       </c>
       <c r="C2" t="n">
-        <v>695.1010115786694</v>
+        <v>812.5785571901426</v>
       </c>
       <c r="D2" t="n">
-        <v>663.231630793518</v>
+        <v>780.7091764049912</v>
       </c>
       <c r="E2" t="n">
-        <v>633.4972899922172</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F2" t="n">
-        <v>609.6702644418291</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4333,49 +4333,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="L2" t="n">
         <v>874.0494664914149</v>
       </c>
-      <c r="L2" t="n">
-        <v>1294.102365436318</v>
-      </c>
       <c r="M2" t="n">
-        <v>1697.183430080417</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>1697.183430080417</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>1697.183430080417</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1134.24202645431</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>771.6250763881362</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>770.8100258395735</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>755.7079664592883</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>751.4622467993457</v>
+        <v>1272.980196451223</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4412,22 +4412,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>1224.671464618085</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>1224.671464618085</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>1224.671464618085</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>1224.671464618085</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1079.313866698211</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>1108.937756271182</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1528.990655216085</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4518,22 +4518,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1516.524240083786</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1516.524240083786</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1516.524240083786</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>1271.132485417198</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>1271.132485417198</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1786.543608036966</v>
+        <v>965.6253987944318</v>
       </c>
       <c r="C5" t="n">
-        <v>1348.40113522039</v>
+        <v>527.4829259778551</v>
       </c>
       <c r="D5" t="n">
-        <v>912.4913503948342</v>
+        <v>103.9937529411661</v>
       </c>
       <c r="E5" t="n">
-        <v>478.7166055531294</v>
+        <v>74.25941213986529</v>
       </c>
       <c r="F5" t="n">
-        <v>50.84917596233714</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="G5" t="n">
-        <v>50.84917596233714</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233714</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947714</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>485.6870740423951</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087175</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>1733.888642131954</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>2357.989426176734</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="N5" t="n">
-        <v>2357.989426176734</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="O5" t="n">
-        <v>2357.989426176734</v>
+        <v>1733.888642131953</v>
       </c>
       <c r="P5" t="n">
-        <v>2357.989426176734</v>
+        <v>1975.120543515259</v>
       </c>
       <c r="Q5" t="n">
-        <v>2357.989426176734</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473857</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473857</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473857</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="U5" t="n">
-        <v>2521.619329473857</v>
+        <v>2178.745152974708</v>
       </c>
       <c r="V5" t="n">
-        <v>2521.619329473857</v>
+        <v>1816.128202908534</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.804278925294</v>
+        <v>1411.272748319567</v>
       </c>
       <c r="X5" t="n">
-        <v>2505.702219545009</v>
+        <v>1396.170688939282</v>
       </c>
       <c r="Y5" t="n">
-        <v>2212.843178521874</v>
+        <v>1391.92496927934</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807699</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174122</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639655</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909192</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070808</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326467</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947714</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993474</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
-        <v>76.49605974993474</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>76.49605974993474</v>
+        <v>401.054384716147</v>
       </c>
       <c r="L6" t="n">
-        <v>76.49605974993474</v>
+        <v>401.054384716147</v>
       </c>
       <c r="M6" t="n">
-        <v>348.2978018843872</v>
+        <v>401.054384716147</v>
       </c>
       <c r="N6" t="n">
-        <v>972.3985859291668</v>
+        <v>401.054384716147</v>
       </c>
       <c r="O6" t="n">
-        <v>1596.499369973946</v>
+        <v>431.6596472970919</v>
       </c>
       <c r="P6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
         <v>1596.499369973946</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424324</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813123</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605331</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>593.0357356940413</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="C7" t="n">
-        <v>448.75251387369</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>448.75251387369</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>278.9945101244273</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>278.9945101244273</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244273</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148018</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947714</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>50.43238658947714</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K7" t="n">
-        <v>325.1908411606128</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>743.4007229285738</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
         <v>1202.884590109487</v>
@@ -4746,31 +4746,31 @@
         <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473857</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179229</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477225</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055681</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308786</v>
+        <v>2353.102503816103</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179216</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.665779765508</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>1012.27402509892</v>
+        <v>1548.728836606237</v>
       </c>
       <c r="Y7" t="n">
-        <v>784.8543544130284</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1789.512437976118</v>
+        <v>173.3508218145016</v>
       </c>
       <c r="C8" t="n">
-        <v>1351.369965159541</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D8" t="n">
-        <v>915.4601803339856</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>2471.176067606882</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>2500.906761678372</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>2500.906761678372</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
-        <v>2500.906761678372</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>2624.098132161372</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.812008461025</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
@@ -4886,25 +4886,25 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>515.0619848335834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4959,7 +4959,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4989,16 +4989,16 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434796</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2489.401636434796</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>2210.968635687901</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1924.013127558332</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
         <v>1797.089421211977</v>
@@ -5029,10 +5029,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H11" t="n">
         <v>102.6776296436396</v>
@@ -5041,52 +5041,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
         <v>1107.588885023173</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>811.7546776883914</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C13" t="n">
-        <v>811.7546776883914</v>
+        <v>911.2193705853248</v>
       </c>
       <c r="D13" t="n">
-        <v>645.8766848899141</v>
+        <v>745.3413777868475</v>
       </c>
       <c r="E13" t="n">
-        <v>476.1186811406514</v>
+        <v>575.5833740375847</v>
       </c>
       <c r="F13" t="n">
-        <v>299.4116271024076</v>
+        <v>398.8763199993409</v>
       </c>
       <c r="G13" t="n">
-        <v>133.8203521282352</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
         <v>102.2608402707796</v>
@@ -5238,13 +5238,13 @@
         <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1476.384721759858</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X13" t="n">
-        <v>1230.99296709327</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y13" t="n">
-        <v>1003.573296407379</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="14">
@@ -5266,10 +5266,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5287,43 +5287,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5518,49 +5518,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1694.563362934248</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5764,37 +5764,37 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136696</v>
@@ -5834,22 +5834,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1209.575145798642</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6068,28 +6068,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6414,22 +6414,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
         <v>2588.899621423627</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2117.975449367836</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6779,25 +6779,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K35" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L35" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M35" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N35" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O35" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7007,31 +7007,31 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7083,22 +7083,22 @@
         <v>303.5569696238763</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J37" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L37" t="n">
         <v>881.8088617745661</v>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7162,43 +7162,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.20561557716</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004238</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722818</v>
@@ -7219,7 +7219,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U41" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7481,10 +7481,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
         <v>128.3245134312372</v>
@@ -7493,25 +7493,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1674.355297099902</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
         <v>1765.500601749588</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
         <v>881.8088617745661</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1507.509340638875</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1262.117585972288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1034.697915286396</v>
       </c>
     </row>
     <row r="44">
@@ -7636,64 +7636,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771598</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004237</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7718,10 +7718,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
         <v>128.3245134312372</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.659051657336</v>
+        <v>875.5388337745582</v>
       </c>
       <c r="C46" t="n">
-        <v>920.0973401405612</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="D46" t="n">
-        <v>754.2193473420839</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E46" t="n">
-        <v>584.4613435928212</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F46" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G46" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
         <v>881.8088617745661</v>
@@ -7833,25 +7833,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2595.191700773933</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2349.312254352388</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2070.879253605493</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1783.923745475924</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1511.897341062215</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.477670376323</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,25 +8060,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>298.4303698644311</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>57.99715944515106</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684641</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>243.6685872558655</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>165.282730603155</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8303,19 +8303,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>274.5472142772247</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684642</v>
+        <v>30.91440664741901</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>110.4038313238407</v>
+        <v>110.4038313238379</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="L8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>667.5152066078572</v>
-      </c>
       <c r="M8" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>112.1603739174596</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8698,22 +8698,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8935,10 +8935,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>687.6461816022032</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9166,19 +9166,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9646,22 +9646,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1005.515419242839</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,19 +9716,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>407.423047230348</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10120,7 +10120,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>583.0591140826364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10588,22 +10588,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>507.105909296743</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>51.29797569827247</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,10 +11305,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>8.789189859684143</v>
       </c>
       <c r="H13" t="n">
-        <v>107.2592358276482</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>197.1718905122112</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>139.5921776627262</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>52.01701577190883</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>63.14631452530499</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>35.15749310933337</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>461802.686849012</v>
+        <v>461802.6868490119</v>
       </c>
     </row>
     <row r="6">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>461802.686849012</v>
+        <v>461802.6868490119</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509339.9538958881</v>
+        <v>509339.9538958882</v>
       </c>
       <c r="C2" t="n">
         <v>509339.9538958881</v>
@@ -26322,25 +26322,25 @@
         <v>509339.9538958881</v>
       </c>
       <c r="E2" t="n">
-        <v>500514.7049304846</v>
+        <v>500514.7049304849</v>
       </c>
       <c r="F2" t="n">
+        <v>500514.7049304849</v>
+      </c>
+      <c r="G2" t="n">
+        <v>500514.7049304849</v>
+      </c>
+      <c r="H2" t="n">
         <v>500514.7049304848</v>
-      </c>
-      <c r="G2" t="n">
-        <v>500514.7049304846</v>
-      </c>
-      <c r="H2" t="n">
-        <v>500514.7049304847</v>
       </c>
       <c r="I2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="J2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="K2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="L2" t="n">
         <v>500514.7049304848</v>
@@ -26355,7 +26355,7 @@
         <v>500514.7049304849</v>
       </c>
       <c r="P2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304849</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501638</v>
+        <v>66587.76789501615</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.5955499826</v>
+        <v>11527.59554998278</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210497</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877268</v>
+        <v>53045.85463877251</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622176</v>
+        <v>9392.301726622321</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379876</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>146735.1647947849</v>
+        <v>146735.1647947851</v>
       </c>
       <c r="D4" t="n">
         <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991268</v>
       </c>
       <c r="F4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991268</v>
       </c>
       <c r="G4" t="n">
+        <v>41122.95192991267</v>
+      </c>
+      <c r="H4" t="n">
         <v>41122.95192991272</v>
-      </c>
-      <c r="H4" t="n">
-        <v>41122.95192991271</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26444,22 +26444,22 @@
         <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991263</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991267</v>
       </c>
       <c r="O4" t="n">
-        <v>41122.95192991267</v>
+        <v>41122.95192991262</v>
       </c>
       <c r="P4" t="n">
-        <v>41122.95192991267</v>
+        <v>41122.95192991264</v>
       </c>
     </row>
     <row r="5">
@@ -26472,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800262</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>120159.3320431426</v>
       </c>
       <c r="C6" t="n">
-        <v>224060.8073980841</v>
+        <v>224060.8073980843</v>
       </c>
       <c r="D6" t="n">
-        <v>284216.0865452433</v>
+        <v>284216.0865452431</v>
       </c>
       <c r="E6" t="n">
-        <v>199318.4051737297</v>
+        <v>199295.1808343473</v>
       </c>
       <c r="F6" t="n">
-        <v>381673.5143947796</v>
+        <v>381650.290055397</v>
       </c>
       <c r="G6" t="n">
-        <v>381673.5143947795</v>
+        <v>381650.290055397</v>
       </c>
       <c r="H6" t="n">
-        <v>381673.5143947795</v>
+        <v>381650.2900553969</v>
       </c>
       <c r="I6" t="n">
-        <v>381673.5143947795</v>
+        <v>381650.2900553969</v>
       </c>
       <c r="J6" t="n">
-        <v>270659.0490497893</v>
+        <v>270635.8247104067</v>
       </c>
       <c r="K6" t="n">
-        <v>328627.6597560068</v>
+        <v>328604.4354166244</v>
       </c>
       <c r="L6" t="n">
-        <v>372281.2126681574</v>
+        <v>372257.9883287745</v>
       </c>
       <c r="M6" t="n">
-        <v>229473.343456792</v>
+        <v>229450.1191174094</v>
       </c>
       <c r="N6" t="n">
-        <v>381673.5143947796</v>
+        <v>381650.2900553969</v>
       </c>
       <c r="O6" t="n">
-        <v>381673.5143947797</v>
+        <v>381650.2900553971</v>
       </c>
       <c r="P6" t="n">
-        <v>381673.5143947795</v>
+        <v>381650.290055397</v>
       </c>
     </row>
   </sheetData>
@@ -26792,10 +26792,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684642</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1278.260503384745</v>
@@ -26822,16 +26822,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483599</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939285</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="E4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483599</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939285</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483599</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939285</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27387,19 +27387,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>113.7278999628231</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>114.0659976714975</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>33.35108289012572</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="5">
@@ -27621,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>12.29640567097783</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>114.2728118504395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>27.99570479945962</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>108.817013338252</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.742286579561437</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27906,19 +27906,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>370.254871502204</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>143.6516710866795</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29988,25 +29988,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-1.03913730891415e-12</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,22 +30510,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-1.429837397906874e-12</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,22 +30747,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-9.641133868265976e-13</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>298.4303698644311</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>57.99715944515106</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684641</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>243.6685872558655</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>165.282730603155</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>274.5472142772247</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684642</v>
+        <v>30.91440664741901</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094343</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35102,19 +35102,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>110.4038313238407</v>
+        <v>110.4038313238379</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="L8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>667.5152066078572</v>
-      </c>
       <c r="M8" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>112.1603739174596</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35345,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35655,10 +35655,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>687.6461816022032</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35886,19 +35886,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36132,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1005.515419242839</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>407.423047230348</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>583.0591140826364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>507.105909296743</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>51.29797569827247</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37469,7 +37469,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37554,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,7 +37706,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37858,10 +37858,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,7 +37943,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38095,7 +38095,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
         <v>661.3192390158824</v>
@@ -38180,7 +38180,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
